--- a/fate/config/计科一班/match.xlsx
+++ b/fate/config/计科一班/match.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,30 +361,35 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>组名</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>题号</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>题目</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>成员1</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>成员2</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>成员3</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -392,293 +397,343 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>和三点三零</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>那时的</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>谢培培</t>
+          <t>就爱上了看过</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>赵劼</t>
+          <t>代孟君</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>赵劼</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>张定权</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>张定权</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>热锅上如果</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>士大夫</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>阿斯顿v</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>田浩</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>郑浩</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>郑浩</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>开发与价格和</t>
-        </is>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>等方式452452542452</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>库交通银行让他把</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>成钊</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>赵琦</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>赵琦</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>i口语通电话</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>风格和</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>徐明阳</t>
+          <t>开发与价格和</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>刘堂臣</t>
+          <t>谢雨宸</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>刘堂臣</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>唐田甜</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>唐田甜</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>投入很大吧</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>阿斯顿</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>谢雨宸</t>
+          <t>热锅上如果</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>唐田甜</t>
+          <t>李浩</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>唐田甜</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>章超</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>章超</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>阿斯顿v</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sdgd</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>陈是均</t>
+          <t>和三点三零</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>古明杰</t>
+          <t>谢培培</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>古明杰</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>赵劼</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>赵劼</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>就爱上了看过</t>
-        </is>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>请问</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>李俊洪</t>
+          <t>微软宝宝</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>吉尚</t>
+          <t>徐明阳</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>吉尚</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>刘堂臣</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>刘堂臣</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>而是如果对方是</t>
-        </is>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>累风</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>i口语通电话</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>温上玮</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>王柯</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>王柯</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>微软宝宝</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>骨灰级</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>李浩</t>
+          <t>而是如果对方是</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>章超</t>
+          <t>陈是均</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>章超</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>古明杰</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>古明杰</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>库交通银行让他把</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>规划局</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>代孟君</t>
+          <t>投入很大吧</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>张定权</t>
+          <t>李俊洪</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>张定权</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>吉尚</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>吉尚</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
